--- a/mySchedulereports.xlsx
+++ b/mySchedulereports.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
   <si>
     <t>Name</t>
   </si>
@@ -20,6 +20,9 @@
     <t>Job code</t>
   </si>
   <si>
+    <t>job Title</t>
+  </si>
+  <si>
     <t>Date &amp; Time</t>
   </si>
   <si>
@@ -27,6 +30,93 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>ravi</t>
+  </si>
+  <si>
+    <t>JOB003</t>
+  </si>
+  <si>
+    <t>2022-05-01 15:00:00.0</t>
+  </si>
+  <si>
+    <t>Naukri</t>
+  </si>
+  <si>
+    <t>SCHEDULED</t>
+  </si>
+  <si>
+    <t>hshsgs</t>
+  </si>
+  <si>
+    <t>JOB001</t>
+  </si>
+  <si>
+    <t>2022-04-30 21:31:00.0</t>
+  </si>
+  <si>
+    <t>Employee Referral</t>
+  </si>
+  <si>
+    <t>RE-SCHEDULED</t>
+  </si>
+  <si>
+    <t>kannan</t>
+  </si>
+  <si>
+    <t>J001</t>
+  </si>
+  <si>
+    <t>2022-04-30 16:00:00.0</t>
+  </si>
+  <si>
+    <t>Hirist</t>
+  </si>
+  <si>
+    <t>yash</t>
+  </si>
+  <si>
+    <t>Indeed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sai </t>
+  </si>
+  <si>
+    <t>2022-04-30 15:30:00.0</t>
+  </si>
+  <si>
+    <t>Monster</t>
+  </si>
+  <si>
+    <t>yhshsb</t>
+  </si>
+  <si>
+    <t>JOB004</t>
+  </si>
+  <si>
+    <t>2022-04-30 15:15:18.0</t>
+  </si>
+  <si>
+    <t>tstst</t>
+  </si>
+  <si>
+    <t>2022-04-30 15:14:51.0</t>
+  </si>
+  <si>
+    <t>CutShort</t>
+  </si>
+  <si>
+    <t>monika</t>
+  </si>
+  <si>
+    <t>JOB002</t>
+  </si>
+  <si>
+    <t>2022-04-30 15:14:35.0</t>
+  </si>
+  <si>
+    <t>Insta Hyre</t>
   </si>
 </sst>
 </file>
@@ -71,7 +161,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -93,6 +183,153 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4"/>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8"/>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9"/>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/mySchedulereports.xlsx
+++ b/mySchedulereports.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="136">
   <si>
     <t>Name</t>
   </si>
@@ -32,55 +32,394 @@
     <t>Status</t>
   </si>
   <si>
+    <t>dgdydy</t>
+  </si>
+  <si>
+    <t>23432</t>
+  </si>
+  <si>
+    <t>cxzcxzxzc</t>
+  </si>
+  <si>
+    <t>2022-05-01 13:44:17</t>
+  </si>
+  <si>
+    <t>Insta Hyre</t>
+  </si>
+  <si>
+    <t>SCHEDULED</t>
+  </si>
+  <si>
+    <t>yeeyeyey</t>
+  </si>
+  <si>
+    <t>JOB001</t>
+  </si>
+  <si>
+    <t>Angular Developer</t>
+  </si>
+  <si>
+    <t>2022-05-01 13:50:36</t>
+  </si>
+  <si>
+    <t>Employee Referral</t>
+  </si>
+  <si>
+    <t>tdtddy</t>
+  </si>
+  <si>
+    <t>JOB002</t>
+  </si>
+  <si>
+    <t>Android Developer</t>
+  </si>
+  <si>
+    <t>2022-05-01 13:53:16</t>
+  </si>
+  <si>
+    <t>dhanush</t>
+  </si>
+  <si>
+    <t>2022-05-01 15:58:57</t>
+  </si>
+  <si>
+    <t>CutShort</t>
+  </si>
+  <si>
+    <t>fddffffff fffvcf</t>
+  </si>
+  <si>
+    <t>2022-05-01 22:58:00</t>
+  </si>
+  <si>
+    <t>jagg</t>
+  </si>
+  <si>
+    <t>JOB003</t>
+  </si>
+  <si>
+    <t>Java Developer</t>
+  </si>
+  <si>
+    <t>2022-05-02 10:59:45</t>
+  </si>
+  <si>
+    <t>vvbgggh</t>
+  </si>
+  <si>
+    <t>2022-05-02 11:20:24</t>
+  </si>
+  <si>
+    <t>ffgccfgf</t>
+  </si>
+  <si>
+    <t>2022-05-02 11:22:20</t>
+  </si>
+  <si>
+    <t>gsstts</t>
+  </si>
+  <si>
+    <t>2022-05-02 11:27:43</t>
+  </si>
+  <si>
+    <t>daarar</t>
+  </si>
+  <si>
+    <t>2022-05-02 11:33:33</t>
+  </si>
+  <si>
+    <t>tata</t>
+  </si>
+  <si>
+    <t>2022-05-02 11:33:58</t>
+  </si>
+  <si>
+    <t>tester yyyyyy</t>
+  </si>
+  <si>
+    <t>J001</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>2022-05-02 11:34:27</t>
+  </si>
+  <si>
+    <t>mkasjabahadada</t>
+  </si>
+  <si>
+    <t>2022-05-02 11:45:00</t>
+  </si>
+  <si>
+    <t>LinkedIn</t>
+  </si>
+  <si>
+    <t>ffffffv</t>
+  </si>
+  <si>
+    <t>2022-05-02 11:46:09</t>
+  </si>
+  <si>
+    <t>Monster</t>
+  </si>
+  <si>
+    <t>Vandana raj</t>
+  </si>
+  <si>
+    <t>2022-05-02 11:56:44</t>
+  </si>
+  <si>
+    <t>Indeed</t>
+  </si>
+  <si>
+    <t>gafaf</t>
+  </si>
+  <si>
+    <t>2022-05-02 12:02:52</t>
+  </si>
+  <si>
+    <t>vav</t>
+  </si>
+  <si>
+    <t>2022-05-02 12:03:04</t>
+  </si>
+  <si>
+    <t>gagagGG</t>
+  </si>
+  <si>
+    <t>2022-05-02 12:11:13</t>
+  </si>
+  <si>
+    <t>RRR</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2022-05-02 12:17:00</t>
+  </si>
+  <si>
+    <t>RE-SCHEDULED</t>
+  </si>
+  <si>
+    <t>schedule for</t>
+  </si>
+  <si>
+    <t>2022-05-02 12:18:16</t>
+  </si>
+  <si>
+    <t>five</t>
+  </si>
+  <si>
+    <t>2022-05-02 12:20:35</t>
+  </si>
+  <si>
+    <t>seveb</t>
+  </si>
+  <si>
+    <t>2022-05-02 12:21:43</t>
+  </si>
+  <si>
+    <t>shshsh</t>
+  </si>
+  <si>
+    <t>2022-05-02 13:52:24</t>
+  </si>
+  <si>
+    <t>testering</t>
+  </si>
+  <si>
+    <t>2022-05-02 14:02:51</t>
+  </si>
+  <si>
+    <t>jithan giri</t>
+  </si>
+  <si>
+    <t>2022-05-02 14:26:00</t>
+  </si>
+  <si>
+    <t>hdhdg</t>
+  </si>
+  <si>
+    <t>2022-05-02 14:29:49</t>
+  </si>
+  <si>
+    <t>balaji</t>
+  </si>
+  <si>
+    <t>2022-05-02 14:30:00</t>
+  </si>
+  <si>
+    <t>Naukri</t>
+  </si>
+  <si>
+    <t>kavin</t>
+  </si>
+  <si>
+    <t>ttttt</t>
+  </si>
+  <si>
+    <t>2022-05-02 14:31:20</t>
+  </si>
+  <si>
+    <t>Hirist</t>
+  </si>
+  <si>
+    <t>tatra</t>
+  </si>
+  <si>
+    <t>2022-05-02 14:34:00</t>
+  </si>
+  <si>
+    <t>Ravikumar R</t>
+  </si>
+  <si>
+    <t>2022-05-02 14:38:12</t>
+  </si>
+  <si>
     <t>ravi</t>
   </si>
   <si>
-    <t>JOB003</t>
-  </si>
-  <si>
-    <t>Java Developer</t>
-  </si>
-  <si>
-    <t>2022-05-03 22:00:00.0</t>
-  </si>
-  <si>
-    <t>Naukri</t>
-  </si>
-  <si>
-    <t>RE-SCHEDULED</t>
-  </si>
-  <si>
-    <t>tstst</t>
-  </si>
-  <si>
-    <t>J001</t>
-  </si>
-  <si>
-    <t>Java</t>
-  </si>
-  <si>
-    <t>2022-04-30 22:15:00.0</t>
-  </si>
-  <si>
-    <t>CutShort</t>
-  </si>
-  <si>
-    <t>monika</t>
-  </si>
-  <si>
-    <t>JOB002</t>
-  </si>
-  <si>
-    <t>Android Developer</t>
-  </si>
-  <si>
-    <t>2022-04-30 15:14:35.0</t>
-  </si>
-  <si>
-    <t>Insta Hyre</t>
-  </si>
-  <si>
-    <t>SCHEDULED</t>
+    <t>2022-05-02 14:43:50</t>
+  </si>
+  <si>
+    <t>giri</t>
+  </si>
+  <si>
+    <t>2022-05-02 14:46:07</t>
+  </si>
+  <si>
+    <t>hshsg</t>
+  </si>
+  <si>
+    <t>2022-05-02 15:24:26</t>
+  </si>
+  <si>
+    <t>2022-05-02 15:26:00</t>
+  </si>
+  <si>
+    <t>sgstydy</t>
+  </si>
+  <si>
+    <t>2022-05-02 15:30:17</t>
+  </si>
+  <si>
+    <t>fufuuf</t>
+  </si>
+  <si>
+    <t>2022-05-02 15:35:00</t>
+  </si>
+  <si>
+    <t>vggggg</t>
+  </si>
+  <si>
+    <t>2022-05-02 16:22:03</t>
+  </si>
+  <si>
+    <t>2022-05-02 16:31:55</t>
+  </si>
+  <si>
+    <t>cgggggggggg</t>
+  </si>
+  <si>
+    <t>2022-05-02 16:59:00</t>
+  </si>
+  <si>
+    <t>2022-05-02 17:31:55</t>
+  </si>
+  <si>
+    <t>gsgsgs</t>
+  </si>
+  <si>
+    <t>2022-05-02 17:55:00</t>
+  </si>
+  <si>
+    <t>gssv</t>
+  </si>
+  <si>
+    <t>2022-05-02 17:56:00</t>
+  </si>
+  <si>
+    <t>2022-05-02 18:59:00</t>
+  </si>
+  <si>
+    <t>vfgvvgggg</t>
+  </si>
+  <si>
+    <t>2022-05-02 19:18:00</t>
+  </si>
+  <si>
+    <t>gggfvvv</t>
+  </si>
+  <si>
+    <t>2022-05-02 19:22:00</t>
+  </si>
+  <si>
+    <t>2022-05-02 19:43:00</t>
+  </si>
+  <si>
+    <t>vggvvggh</t>
+  </si>
+  <si>
+    <t>2022-05-02 19:45:00</t>
+  </si>
+  <si>
+    <t>Bhargav Chowdhary</t>
+  </si>
+  <si>
+    <t>2022-05-02 19:50:00</t>
+  </si>
+  <si>
+    <t>Chandini Sundar</t>
+  </si>
+  <si>
+    <t>2022-05-02 21:40:00</t>
+  </si>
+  <si>
+    <t>nidnxnx</t>
+  </si>
+  <si>
+    <t>2022-05-03 00:40:28</t>
+  </si>
+  <si>
+    <t>g cggc</t>
+  </si>
+  <si>
+    <t>2022-05-03 00:49:36</t>
+  </si>
+  <si>
+    <t>wttstst</t>
+  </si>
+  <si>
+    <t>2022-05-03 01:57:46</t>
+  </si>
+  <si>
+    <t>hhhyyyy</t>
+  </si>
+  <si>
+    <t>2022-05-03 15:00:00</t>
+  </si>
+  <si>
+    <t>Select Source</t>
+  </si>
+  <si>
+    <t>vgggvggg</t>
+  </si>
+  <si>
+    <t>2022-05-03 18:44:00</t>
+  </si>
+  <si>
+    <t>sai lakshmiprasadyadav malakala</t>
+  </si>
+  <si>
+    <t>2022-05-10 18:05:00</t>
+  </si>
+  <si>
+    <t>attatat</t>
+  </si>
+  <si>
+    <t>2022-05-12 19:00:00</t>
   </si>
 </sst>
 </file>
@@ -125,7 +464,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -205,10 +544,1090 @@
         <v>20</v>
       </c>
       <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="F4" t="s">
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" t="s">
+        <v>76</v>
+      </c>
+      <c r="E27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" t="s">
+        <v>79</v>
+      </c>
+      <c r="F28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" t="s">
+        <v>79</v>
+      </c>
+      <c r="F29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" t="s">
+        <v>82</v>
+      </c>
+      <c r="E30" t="s">
+        <v>83</v>
+      </c>
+      <c r="F30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" t="s">
+        <v>87</v>
+      </c>
+      <c r="E32" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" t="s">
+        <v>91</v>
+      </c>
+      <c r="E34" t="s">
+        <v>83</v>
+      </c>
+      <c r="F34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>92</v>
+      </c>
+      <c r="B35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" t="s">
+        <v>93</v>
+      </c>
+      <c r="E35" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" t="s">
+        <v>94</v>
+      </c>
+      <c r="E36" t="s">
+        <v>23</v>
+      </c>
+      <c r="F36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" t="s">
+        <v>96</v>
+      </c>
+      <c r="E37" t="s">
+        <v>52</v>
+      </c>
+      <c r="F37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>97</v>
+      </c>
+      <c r="B38" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" t="s">
+        <v>98</v>
+      </c>
+      <c r="E38" t="s">
+        <v>52</v>
+      </c>
+      <c r="F38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>99</v>
+      </c>
+      <c r="B39" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" t="s">
+        <v>100</v>
+      </c>
+      <c r="E39" t="s">
+        <v>23</v>
+      </c>
+      <c r="F39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>99</v>
+      </c>
+      <c r="B40" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" t="s">
+        <v>101</v>
+      </c>
+      <c r="E40" t="s">
+        <v>23</v>
+      </c>
+      <c r="F40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>102</v>
+      </c>
+      <c r="B41" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" t="s">
+        <v>103</v>
+      </c>
+      <c r="E41" t="s">
+        <v>49</v>
+      </c>
+      <c r="F41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>99</v>
+      </c>
+      <c r="B42" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42" t="s">
+        <v>104</v>
+      </c>
+      <c r="E42" t="s">
+        <v>23</v>
+      </c>
+      <c r="F42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>105</v>
+      </c>
+      <c r="B43" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" t="s">
+        <v>28</v>
+      </c>
+      <c r="D43" t="s">
+        <v>106</v>
+      </c>
+      <c r="E43" t="s">
+        <v>60</v>
+      </c>
+      <c r="F43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>107</v>
+      </c>
+      <c r="B44" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44" t="s">
+        <v>108</v>
+      </c>
+      <c r="E44" t="s">
+        <v>60</v>
+      </c>
+      <c r="F44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>97</v>
+      </c>
+      <c r="B45" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" t="s">
+        <v>28</v>
+      </c>
+      <c r="D45" t="s">
+        <v>109</v>
+      </c>
+      <c r="E45" t="s">
+        <v>52</v>
+      </c>
+      <c r="F45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>110</v>
+      </c>
+      <c r="B46" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46" t="s">
+        <v>111</v>
+      </c>
+      <c r="E46" t="s">
+        <v>46</v>
+      </c>
+      <c r="F46" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>112</v>
+      </c>
+      <c r="B47" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" t="s">
+        <v>113</v>
+      </c>
+      <c r="E47" t="s">
+        <v>23</v>
+      </c>
+      <c r="F47" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>105</v>
+      </c>
+      <c r="B48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" t="s">
+        <v>114</v>
+      </c>
+      <c r="E48" t="s">
+        <v>60</v>
+      </c>
+      <c r="F48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>115</v>
+      </c>
+      <c r="B49" t="s">
+        <v>27</v>
+      </c>
+      <c r="C49" t="s">
+        <v>28</v>
+      </c>
+      <c r="D49" t="s">
+        <v>116</v>
+      </c>
+      <c r="E49" t="s">
+        <v>49</v>
+      </c>
+      <c r="F49" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>117</v>
+      </c>
+      <c r="B50" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" t="s">
+        <v>28</v>
+      </c>
+      <c r="D50" t="s">
+        <v>118</v>
+      </c>
+      <c r="E50" t="s">
+        <v>60</v>
+      </c>
+      <c r="F50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>119</v>
+      </c>
+      <c r="B51" t="s">
+        <v>27</v>
+      </c>
+      <c r="C51" t="s">
+        <v>28</v>
+      </c>
+      <c r="D51" t="s">
+        <v>120</v>
+      </c>
+      <c r="E51" t="s">
+        <v>60</v>
+      </c>
+      <c r="F51" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>121</v>
+      </c>
+      <c r="B52" t="s">
+        <v>27</v>
+      </c>
+      <c r="C52" t="s">
+        <v>28</v>
+      </c>
+      <c r="D52" t="s">
+        <v>122</v>
+      </c>
+      <c r="E52" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>123</v>
+      </c>
+      <c r="B53" t="s">
+        <v>27</v>
+      </c>
+      <c r="C53" t="s">
+        <v>28</v>
+      </c>
+      <c r="D53" t="s">
+        <v>124</v>
+      </c>
+      <c r="E53" t="s">
+        <v>60</v>
+      </c>
+      <c r="F53" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>125</v>
+      </c>
+      <c r="B54" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54" t="s">
+        <v>126</v>
+      </c>
+      <c r="E54" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>127</v>
+      </c>
+      <c r="B55" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55" t="s">
+        <v>28</v>
+      </c>
+      <c r="D55" t="s">
+        <v>128</v>
+      </c>
+      <c r="E55" t="s">
+        <v>129</v>
+      </c>
+      <c r="F55" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>130</v>
+      </c>
+      <c r="B56" t="s">
+        <v>27</v>
+      </c>
+      <c r="C56" t="s">
+        <v>28</v>
+      </c>
+      <c r="D56" t="s">
+        <v>131</v>
+      </c>
+      <c r="E56" t="s">
+        <v>46</v>
+      </c>
+      <c r="F56" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>132</v>
+      </c>
+      <c r="B57" t="s">
+        <v>27</v>
+      </c>
+      <c r="C57" t="s">
+        <v>28</v>
+      </c>
+      <c r="D57" t="s">
+        <v>133</v>
+      </c>
+      <c r="E57" t="s">
+        <v>49</v>
+      </c>
+      <c r="F57" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>134</v>
+      </c>
+      <c r="B58" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" t="s">
+        <v>135</v>
+      </c>
+      <c r="E58" t="s">
+        <v>52</v>
+      </c>
+      <c r="F58" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/mySchedulereports.xlsx
+++ b/mySchedulereports.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="54">
   <si>
     <t>Name</t>
   </si>
@@ -32,88 +32,148 @@
     <t>Status</t>
   </si>
   <si>
+    <t>vvvvvvvvvvtttt</t>
+  </si>
+  <si>
+    <t>JOB003</t>
+  </si>
+  <si>
+    <t>Java Developer</t>
+  </si>
+  <si>
+    <t>2022-05-03 16:46:00</t>
+  </si>
+  <si>
+    <t>Monster</t>
+  </si>
+  <si>
+    <t>RE-SCHEDULED</t>
+  </si>
+  <si>
+    <t>hasgdfauykf</t>
+  </si>
+  <si>
+    <t>J001</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>2022-05-03 17:12:00</t>
+  </si>
+  <si>
+    <t>Yahswanth</t>
+  </si>
+  <si>
+    <t>JOB002</t>
+  </si>
+  <si>
+    <t>Android Developer</t>
+  </si>
+  <si>
+    <t>2022-05-03 18:25:00</t>
+  </si>
+  <si>
+    <t>LinkedIn</t>
+  </si>
+  <si>
+    <t>Vinoth</t>
+  </si>
+  <si>
+    <t>2022-05-03 18:26:00</t>
+  </si>
+  <si>
+    <t>Naukri</t>
+  </si>
+  <si>
+    <t>cccc</t>
+  </si>
+  <si>
+    <t>2022-05-03 20:40:00</t>
+  </si>
+  <si>
+    <t>Indeed</t>
+  </si>
+  <si>
+    <t>SCHEDULED</t>
+  </si>
+  <si>
+    <t>xczxzc</t>
+  </si>
+  <si>
+    <t>2022-05-04 05:26:30</t>
+  </si>
+  <si>
+    <t>vgggg</t>
+  </si>
+  <si>
+    <t>2022-05-04 06:18:00</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>cxvcvcvx</t>
+  </si>
+  <si>
+    <t>2022-05-04 07:32:41</t>
+  </si>
+  <si>
+    <t>xc@222</t>
+  </si>
+  <si>
+    <t>2022-05-04 07:45:00</t>
+  </si>
+  <si>
+    <t>Ravi</t>
+  </si>
+  <si>
+    <t>2022-05-04 08:01:08</t>
+  </si>
+  <si>
+    <t>sudhan</t>
+  </si>
+  <si>
+    <t>2022-05-04 08:15:00</t>
+  </si>
+  <si>
+    <t>gsgshs</t>
+  </si>
+  <si>
+    <t>2022-05-04 09:32:37</t>
+  </si>
+  <si>
+    <t>Select Source</t>
+  </si>
+  <si>
+    <t>Muthammas</t>
+  </si>
+  <si>
+    <t>2022-05-04 10:05:00</t>
+  </si>
+  <si>
+    <t>xggdgdd</t>
+  </si>
+  <si>
+    <t>2022-05-04 10:35:00</t>
+  </si>
+  <si>
+    <t>sailakshmi</t>
+  </si>
+  <si>
+    <t>2022-05-04 13:00:00</t>
+  </si>
+  <si>
     <t>vxcvcvxcv xzcxzcxcz</t>
   </si>
   <si>
-    <t>JOB003</t>
-  </si>
-  <si>
-    <t>Java Developer</t>
-  </si>
-  <si>
-    <t>2022-05-03 16:00:00</t>
-  </si>
-  <si>
-    <t>LinkedIn</t>
-  </si>
-  <si>
-    <t>RE-SCHEDULED</t>
-  </si>
-  <si>
-    <t>Yahswanth</t>
-  </si>
-  <si>
-    <t>JOB002</t>
-  </si>
-  <si>
-    <t>Android Developer</t>
-  </si>
-  <si>
-    <t>2022-05-03 16:19:54</t>
-  </si>
-  <si>
-    <t>Gachi</t>
-  </si>
-  <si>
-    <t>2022-05-04 12:45:00</t>
-  </si>
-  <si>
-    <t>Naukri</t>
-  </si>
-  <si>
-    <t>SCHEDULED</t>
-  </si>
-  <si>
-    <t>Ravi</t>
-  </si>
-  <si>
-    <t>J001</t>
-  </si>
-  <si>
-    <t>Java</t>
-  </si>
-  <si>
-    <t>2022-05-04 13:31:08</t>
-  </si>
-  <si>
-    <t>gsgshs</t>
-  </si>
-  <si>
-    <t>2022-05-04 15:02:37</t>
-  </si>
-  <si>
-    <t>Select Source</t>
-  </si>
-  <si>
-    <t>xggdgdd</t>
-  </si>
-  <si>
-    <t>2022-05-04 16:05:00</t>
-  </si>
-  <si>
-    <t>Indeed</t>
-  </si>
-  <si>
-    <t>Muthammas</t>
-  </si>
-  <si>
-    <t>2022-05-04 16:33:53</t>
-  </si>
-  <si>
-    <t>Vinoth</t>
-  </si>
-  <si>
-    <t>2022-05-04 16:51:51</t>
+    <t>2022-05-04 17:17:00</t>
+  </si>
+  <si>
+    <t>Sneha</t>
+  </si>
+  <si>
+    <t>2022-05-26 13:17:00</t>
   </si>
 </sst>
 </file>
@@ -158,7 +218,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -229,39 +289,39 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>23</v>
       </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
@@ -281,27 +341,27 @@
         <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8">
@@ -309,39 +369,219 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
         <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" t="s">
         <v>32</v>
       </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" t="s">
-        <v>19</v>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/mySchedulereports.xlsx
+++ b/mySchedulereports.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="82">
   <si>
     <t>Name</t>
   </si>
@@ -32,7 +32,40 @@
     <t>Status</t>
   </si>
   <si>
-    <t>vvvvvvvvvvtttt</t>
+    <t>hasgdfauykf</t>
+  </si>
+  <si>
+    <t>J001</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>2022-05-03 22:42</t>
+  </si>
+  <si>
+    <t>Monster</t>
+  </si>
+  <si>
+    <t>RE-SCHEDULED</t>
+  </si>
+  <si>
+    <t>Yahswanth</t>
+  </si>
+  <si>
+    <t>JOB002</t>
+  </si>
+  <si>
+    <t>Android Developer</t>
+  </si>
+  <si>
+    <t>2022-05-03 23:55</t>
+  </si>
+  <si>
+    <t>LinkedIn</t>
+  </si>
+  <si>
+    <t>Vinoth</t>
   </si>
   <si>
     <t>JOB003</t>
@@ -41,46 +74,7 @@
     <t>Java Developer</t>
   </si>
   <si>
-    <t>2022-05-03 16:46:00</t>
-  </si>
-  <si>
-    <t>Monster</t>
-  </si>
-  <si>
-    <t>RE-SCHEDULED</t>
-  </si>
-  <si>
-    <t>hasgdfauykf</t>
-  </si>
-  <si>
-    <t>J001</t>
-  </si>
-  <si>
-    <t>Java</t>
-  </si>
-  <si>
-    <t>2022-05-03 17:12:00</t>
-  </si>
-  <si>
-    <t>Yahswanth</t>
-  </si>
-  <si>
-    <t>JOB002</t>
-  </si>
-  <si>
-    <t>Android Developer</t>
-  </si>
-  <si>
-    <t>2022-05-03 18:25:00</t>
-  </si>
-  <si>
-    <t>LinkedIn</t>
-  </si>
-  <si>
-    <t>Vinoth</t>
-  </si>
-  <si>
-    <t>2022-05-03 18:26:00</t>
+    <t>2022-05-03 23:56</t>
   </si>
   <si>
     <t>Naukri</t>
@@ -89,7 +83,7 @@
     <t>cccc</t>
   </si>
   <si>
-    <t>2022-05-03 20:40:00</t>
+    <t>2022-05-04 02:10</t>
   </si>
   <si>
     <t>Indeed</t>
@@ -101,79 +95,169 @@
     <t>xczxzc</t>
   </si>
   <si>
-    <t>2022-05-04 05:26:30</t>
+    <t>2022-05-04 13:50</t>
+  </si>
+  <si>
+    <t>fzfsffz</t>
+  </si>
+  <si>
+    <t>2022-05-04 13:55</t>
+  </si>
+  <si>
+    <t>Insta Hyre</t>
+  </si>
+  <si>
+    <t>Gachi</t>
+  </si>
+  <si>
+    <t>2022-05-04 14:00</t>
   </si>
   <si>
     <t>vgggg</t>
   </si>
   <si>
-    <t>2022-05-04 06:18:00</t>
+    <t>2022-05-04 14:06</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>cxvcvcvx</t>
-  </si>
-  <si>
-    <t>2022-05-04 07:32:41</t>
+    <t>vvvvvvvgbvvv</t>
+  </si>
+  <si>
+    <t>2022-05-04 14:08</t>
+  </si>
+  <si>
+    <t>gggggggg</t>
+  </si>
+  <si>
+    <t>2022-05-04 14:15</t>
+  </si>
+  <si>
+    <t>cxvcvcvxxxx</t>
+  </si>
+  <si>
+    <t>dhanush</t>
+  </si>
+  <si>
+    <t>2022-05-04 14:20</t>
+  </si>
+  <si>
+    <t>ghhhhhhh</t>
+  </si>
+  <si>
+    <t>2022-05-04 14:28</t>
+  </si>
+  <si>
+    <t>sudhan</t>
+  </si>
+  <si>
+    <t>2022-05-04 14:33</t>
+  </si>
+  <si>
+    <t>gsgshs</t>
+  </si>
+  <si>
+    <t>2022-05-04 15:02</t>
+  </si>
+  <si>
+    <t>Select Source</t>
+  </si>
+  <si>
+    <t>bvgbvvvvvvvvv</t>
+  </si>
+  <si>
+    <t>BJHB</t>
+  </si>
+  <si>
+    <t>jhbsfjh</t>
+  </si>
+  <si>
+    <t>2022-05-04 15:06</t>
+  </si>
+  <si>
+    <t>2022-05-04 15:09</t>
+  </si>
+  <si>
+    <t>Dhanush</t>
+  </si>
+  <si>
+    <t>2022-05-04 15:30</t>
+  </si>
+  <si>
+    <t>Velu</t>
+  </si>
+  <si>
+    <t>2022-05-04 15:37</t>
+  </si>
+  <si>
+    <t>Hirist</t>
+  </si>
+  <si>
+    <t>xggdgdd</t>
+  </si>
+  <si>
+    <t>2022-05-04 16:05</t>
+  </si>
+  <si>
+    <t>not goof</t>
+  </si>
+  <si>
+    <t>JOB004</t>
+  </si>
+  <si>
+    <t>React Developer</t>
+  </si>
+  <si>
+    <t>2022-05-04 16:17</t>
+  </si>
+  <si>
+    <t>Muthamma</t>
+  </si>
+  <si>
+    <t>2022-05-04 18:00</t>
+  </si>
+  <si>
+    <t>sailakshmi</t>
+  </si>
+  <si>
+    <t>2022-05-04 18:30</t>
+  </si>
+  <si>
+    <t>vxcvcvxcv xzcxzcxcz</t>
+  </si>
+  <si>
+    <t>2022-05-04 22:47</t>
   </si>
   <si>
     <t>xc@222</t>
   </si>
   <si>
-    <t>2022-05-04 07:45:00</t>
+    <t>2022-05-05 14:15</t>
+  </si>
+  <si>
+    <t>dhan</t>
+  </si>
+  <si>
+    <t>2022-05-05 15:00</t>
   </si>
   <si>
     <t>Ravi</t>
   </si>
   <si>
-    <t>2022-05-04 08:01:08</t>
-  </si>
-  <si>
-    <t>sudhan</t>
-  </si>
-  <si>
-    <t>2022-05-04 08:15:00</t>
-  </si>
-  <si>
-    <t>gsgshs</t>
-  </si>
-  <si>
-    <t>2022-05-04 09:32:37</t>
-  </si>
-  <si>
-    <t>Select Source</t>
-  </si>
-  <si>
-    <t>Muthammas</t>
-  </si>
-  <si>
-    <t>2022-05-04 10:05:00</t>
-  </si>
-  <si>
-    <t>xggdgdd</t>
-  </si>
-  <si>
-    <t>2022-05-04 10:35:00</t>
-  </si>
-  <si>
-    <t>sailakshmi</t>
-  </si>
-  <si>
-    <t>2022-05-04 13:00:00</t>
-  </si>
-  <si>
-    <t>vxcvcvxcv xzcxzcxcz</t>
-  </si>
-  <si>
-    <t>2022-05-04 17:17:00</t>
+    <t>2022-05-05 15:30</t>
+  </si>
+  <si>
+    <t>sdfghgre</t>
+  </si>
+  <si>
+    <t>2022-05-05 16:16</t>
   </si>
   <si>
     <t>Sneha</t>
   </si>
   <si>
-    <t>2022-05-26 13:17:00</t>
+    <t>2022-05-26 18:47</t>
   </si>
 </sst>
 </file>
@@ -218,7 +302,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -278,7 +362,7 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -286,19 +370,19 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -306,42 +390,42 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -349,39 +433,39 @@
         <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
         <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -389,44 +473,44 @@
         <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
         <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -435,10 +519,10 @@
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -446,7 +530,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -455,13 +539,13 @@
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13">
@@ -469,36 +553,36 @@
         <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
         <v>42</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
         <v>44</v>
       </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" t="s">
-        <v>45</v>
-      </c>
       <c r="E14" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F14" t="s">
         <v>11</v>
@@ -506,42 +590,42 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
         <v>46</v>
       </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" t="s">
-        <v>47</v>
-      </c>
       <c r="E15" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" t="s">
         <v>48</v>
       </c>
-      <c r="B16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>49</v>
       </c>
-      <c r="E16" t="s">
-        <v>20</v>
-      </c>
       <c r="F16" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
@@ -549,16 +633,16 @@
         <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E17" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F17" t="s">
         <v>11</v>
@@ -566,7 +650,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
@@ -575,12 +659,252 @@
         <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E18" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" t="s">
+        <v>79</v>
+      </c>
+      <c r="E29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" t="s">
         <v>11</v>
       </c>
     </row>

--- a/mySchedulereports.xlsx
+++ b/mySchedulereports.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="132">
   <si>
     <t>Name</t>
   </si>
@@ -32,7 +32,91 @@
     <t>Status</t>
   </si>
   <si>
-    <t>hasgdfauykf</t>
+    <t>Yahswanth</t>
+  </si>
+  <si>
+    <t>JOB002</t>
+  </si>
+  <si>
+    <t>Android Developer</t>
+  </si>
+  <si>
+    <t>2022-05-03 23:55</t>
+  </si>
+  <si>
+    <t>LinkedIn</t>
+  </si>
+  <si>
+    <t>RE-SCHEDULED</t>
+  </si>
+  <si>
+    <t>Vinoth</t>
+  </si>
+  <si>
+    <t>JOB003</t>
+  </si>
+  <si>
+    <t>Java Developer</t>
+  </si>
+  <si>
+    <t>2022-05-03 23:56</t>
+  </si>
+  <si>
+    <t>Naukri</t>
+  </si>
+  <si>
+    <t>cccc</t>
+  </si>
+  <si>
+    <t>2022-05-04 02:10</t>
+  </si>
+  <si>
+    <t>Indeed</t>
+  </si>
+  <si>
+    <t>SCHEDULED</t>
+  </si>
+  <si>
+    <t>fzfsffz</t>
+  </si>
+  <si>
+    <t>2022-05-04 18:15</t>
+  </si>
+  <si>
+    <t>Insta Hyre</t>
+  </si>
+  <si>
+    <t>gggggggg</t>
+  </si>
+  <si>
+    <t>2022-05-04 18:30</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>sailakshmi</t>
+  </si>
+  <si>
+    <t>vgggg</t>
+  </si>
+  <si>
+    <t>2022-05-04 18:40</t>
+  </si>
+  <si>
+    <t>Select Source</t>
+  </si>
+  <si>
+    <t>Velu</t>
+  </si>
+  <si>
+    <t>2022-05-04 18:59</t>
+  </si>
+  <si>
+    <t>Hirist</t>
+  </si>
+  <si>
+    <t>xggdgdd</t>
   </si>
   <si>
     <t>J001</t>
@@ -41,217 +125,283 @@
     <t>Java</t>
   </si>
   <si>
-    <t>2022-05-03 22:42</t>
+    <t>2022-05-04 19:01</t>
+  </si>
+  <si>
+    <t>gghgggg</t>
+  </si>
+  <si>
+    <t>job678</t>
+  </si>
+  <si>
+    <t>java</t>
+  </si>
+  <si>
+    <t>2022-05-04 19:04</t>
+  </si>
+  <si>
+    <t>vcvvbvg</t>
+  </si>
+  <si>
+    <t>2022-05-04 19:08</t>
+  </si>
+  <si>
+    <t>fhdhdh</t>
+  </si>
+  <si>
+    <t>BJHB</t>
+  </si>
+  <si>
+    <t>jhbsfjh</t>
+  </si>
+  <si>
+    <t>2022-05-04 19:14</t>
+  </si>
+  <si>
+    <t>cxzczxxzc</t>
+  </si>
+  <si>
+    <t>2022-05-04 19:17</t>
+  </si>
+  <si>
+    <t>cxvxcvcxv</t>
+  </si>
+  <si>
+    <t>2022-05-04 19:18</t>
+  </si>
+  <si>
+    <t>yzyyz</t>
+  </si>
+  <si>
+    <t>2022-05-04 19:29</t>
+  </si>
+  <si>
+    <t>@asdad</t>
+  </si>
+  <si>
+    <t>2022-05-04 19:30</t>
   </si>
   <si>
     <t>Monster</t>
   </si>
   <si>
-    <t>RE-SCHEDULED</t>
-  </si>
-  <si>
-    <t>Yahswanth</t>
-  </si>
-  <si>
-    <t>JOB002</t>
-  </si>
-  <si>
-    <t>Android Developer</t>
-  </si>
-  <si>
-    <t>2022-05-03 23:55</t>
-  </si>
-  <si>
-    <t>LinkedIn</t>
-  </si>
-  <si>
-    <t>Vinoth</t>
-  </si>
-  <si>
-    <t>JOB003</t>
-  </si>
-  <si>
-    <t>Java Developer</t>
-  </si>
-  <si>
-    <t>2022-05-03 23:56</t>
-  </si>
-  <si>
-    <t>Naukri</t>
-  </si>
-  <si>
-    <t>cccc</t>
-  </si>
-  <si>
-    <t>2022-05-04 02:10</t>
-  </si>
-  <si>
-    <t>Indeed</t>
-  </si>
-  <si>
-    <t>SCHEDULED</t>
-  </si>
-  <si>
-    <t>xczxzc</t>
-  </si>
-  <si>
-    <t>2022-05-04 13:50</t>
-  </si>
-  <si>
-    <t>fzfsffz</t>
-  </si>
-  <si>
-    <t>2022-05-04 13:55</t>
-  </si>
-  <si>
-    <t>Insta Hyre</t>
+    <t>vvvvvv</t>
+  </si>
+  <si>
+    <t>2022-05-04 19:37</t>
+  </si>
+  <si>
+    <t>Muthamma</t>
+  </si>
+  <si>
+    <t>gsgshs</t>
+  </si>
+  <si>
+    <t>2022-05-04 19:47</t>
+  </si>
+  <si>
+    <t>vvvvvvvgbvvv</t>
+  </si>
+  <si>
+    <t>2022-05-04 20:05</t>
+  </si>
+  <si>
+    <t>hggggbb</t>
+  </si>
+  <si>
+    <t>2022-05-04 20:10</t>
+  </si>
+  <si>
+    <t>fzFzf</t>
+  </si>
+  <si>
+    <t>JOB001</t>
+  </si>
+  <si>
+    <t>Angular Developer</t>
+  </si>
+  <si>
+    <t>CutShort</t>
+  </si>
+  <si>
+    <t>hzhzhz</t>
+  </si>
+  <si>
+    <t>ghgghhh</t>
+  </si>
+  <si>
+    <t>vzvzvz</t>
+  </si>
+  <si>
+    <t>2022-05-04 20:13</t>
+  </si>
+  <si>
+    <t>2`12`12`2</t>
+  </si>
+  <si>
+    <t>2022-05-04 20:17</t>
+  </si>
+  <si>
+    <t>2`12`12</t>
+  </si>
+  <si>
+    <t>gxxgdg</t>
+  </si>
+  <si>
+    <t>2022-05-04 20:21</t>
+  </si>
+  <si>
+    <t>hxhz</t>
+  </si>
+  <si>
+    <t>gdgdgs</t>
+  </si>
+  <si>
+    <t>2022-05-04 20:22</t>
+  </si>
+  <si>
+    <t>dhanush</t>
+  </si>
+  <si>
+    <t>2022-05-04 20:23</t>
+  </si>
+  <si>
+    <t>dydydy</t>
+  </si>
+  <si>
+    <t>2022-05-04 20:24</t>
+  </si>
+  <si>
+    <t>cxvcvcvxxxx</t>
+  </si>
+  <si>
+    <t>ghhhhhhh</t>
+  </si>
+  <si>
+    <t>hshshs</t>
+  </si>
+  <si>
+    <t>2022-05-04 20:28</t>
+  </si>
+  <si>
+    <t>ysysy</t>
+  </si>
+  <si>
+    <t>2022-05-04 20:29</t>
+  </si>
+  <si>
+    <t>csdacsdc</t>
+  </si>
+  <si>
+    <t>2022-05-04 20:30</t>
+  </si>
+  <si>
+    <t>csaCSAC</t>
+  </si>
+  <si>
+    <t>hdbashbsahd</t>
+  </si>
+  <si>
+    <t>2022-05-04 20:31</t>
+  </si>
+  <si>
+    <t>2`12`121</t>
+  </si>
+  <si>
+    <t>2022-05-04 20:35</t>
+  </si>
+  <si>
+    <t>sudhan</t>
+  </si>
+  <si>
+    <t>2022-05-04 20:44</t>
+  </si>
+  <si>
+    <t>bvgbvvvvvvvvv</t>
+  </si>
+  <si>
+    <t>2022-05-04 20:50</t>
+  </si>
+  <si>
+    <t>Dhanush</t>
+  </si>
+  <si>
+    <t>2022-05-04 20:53</t>
+  </si>
+  <si>
+    <t>fssfsf</t>
+  </si>
+  <si>
+    <t>2022-05-04 20:58</t>
+  </si>
+  <si>
+    <t>not goof</t>
+  </si>
+  <si>
+    <t>JOB004</t>
+  </si>
+  <si>
+    <t>React Developer</t>
+  </si>
+  <si>
+    <t>2022-05-04 21:01</t>
+  </si>
+  <si>
+    <t>hhhyyhhhh</t>
+  </si>
+  <si>
+    <t>2022-05-04 21:15</t>
+  </si>
+  <si>
+    <t>gzgz</t>
+  </si>
+  <si>
+    <t>7678687</t>
+  </si>
+  <si>
+    <t>jkhjdhjahsjkashdjkashdjkashjdsaghdgadshdgyjg</t>
+  </si>
+  <si>
+    <t>2022-05-04 22:04</t>
+  </si>
+  <si>
+    <t>vxcvcvxcv xzcxzcxcz</t>
+  </si>
+  <si>
+    <t>2022-05-04 22:47</t>
+  </si>
+  <si>
+    <t>xc@222</t>
+  </si>
+  <si>
+    <t>2022-05-05 14:15</t>
+  </si>
+  <si>
+    <t>dhan</t>
+  </si>
+  <si>
+    <t>2022-05-05 15:00</t>
+  </si>
+  <si>
+    <t>Ravi</t>
+  </si>
+  <si>
+    <t>2022-05-05 15:30</t>
+  </si>
+  <si>
+    <t>sdfghgre</t>
+  </si>
+  <si>
+    <t>2022-05-05 16:16</t>
   </si>
   <si>
     <t>Gachi</t>
   </si>
   <si>
-    <t>2022-05-04 14:00</t>
-  </si>
-  <si>
-    <t>vgggg</t>
-  </si>
-  <si>
-    <t>2022-05-04 14:06</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>vvvvvvvgbvvv</t>
-  </si>
-  <si>
-    <t>2022-05-04 14:08</t>
-  </si>
-  <si>
-    <t>gggggggg</t>
-  </si>
-  <si>
-    <t>2022-05-04 14:15</t>
-  </si>
-  <si>
-    <t>cxvcvcvxxxx</t>
-  </si>
-  <si>
-    <t>dhanush</t>
-  </si>
-  <si>
-    <t>2022-05-04 14:20</t>
-  </si>
-  <si>
-    <t>ghhhhhhh</t>
-  </si>
-  <si>
-    <t>2022-05-04 14:28</t>
-  </si>
-  <si>
-    <t>sudhan</t>
-  </si>
-  <si>
-    <t>2022-05-04 14:33</t>
-  </si>
-  <si>
-    <t>gsgshs</t>
-  </si>
-  <si>
-    <t>2022-05-04 15:02</t>
-  </si>
-  <si>
-    <t>Select Source</t>
-  </si>
-  <si>
-    <t>bvgbvvvvvvvvv</t>
-  </si>
-  <si>
-    <t>BJHB</t>
-  </si>
-  <si>
-    <t>jhbsfjh</t>
-  </si>
-  <si>
-    <t>2022-05-04 15:06</t>
-  </si>
-  <si>
-    <t>2022-05-04 15:09</t>
-  </si>
-  <si>
-    <t>Dhanush</t>
-  </si>
-  <si>
-    <t>2022-05-04 15:30</t>
-  </si>
-  <si>
-    <t>Velu</t>
-  </si>
-  <si>
-    <t>2022-05-04 15:37</t>
-  </si>
-  <si>
-    <t>Hirist</t>
-  </si>
-  <si>
-    <t>xggdgdd</t>
-  </si>
-  <si>
-    <t>2022-05-04 16:05</t>
-  </si>
-  <si>
-    <t>not goof</t>
-  </si>
-  <si>
-    <t>JOB004</t>
-  </si>
-  <si>
-    <t>React Developer</t>
-  </si>
-  <si>
-    <t>2022-05-04 16:17</t>
-  </si>
-  <si>
-    <t>Muthamma</t>
-  </si>
-  <si>
-    <t>2022-05-04 18:00</t>
-  </si>
-  <si>
-    <t>sailakshmi</t>
-  </si>
-  <si>
-    <t>2022-05-04 18:30</t>
-  </si>
-  <si>
-    <t>vxcvcvxcv xzcxzcxcz</t>
-  </si>
-  <si>
-    <t>2022-05-04 22:47</t>
-  </si>
-  <si>
-    <t>xc@222</t>
-  </si>
-  <si>
-    <t>2022-05-05 14:15</t>
-  </si>
-  <si>
-    <t>dhan</t>
-  </si>
-  <si>
-    <t>2022-05-05 15:00</t>
-  </si>
-  <si>
-    <t>Ravi</t>
-  </si>
-  <si>
-    <t>2022-05-05 15:30</t>
-  </si>
-  <si>
-    <t>sdfghgre</t>
-  </si>
-  <si>
-    <t>2022-05-05 16:16</t>
+    <t>2022-05-05 17:42</t>
+  </si>
+  <si>
+    <t>dydydyd</t>
   </si>
   <si>
     <t>Sneha</t>
@@ -302,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -373,56 +523,56 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>23</v>
       </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -430,82 +580,82 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
         <v>33</v>
       </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" t="s">
-        <v>35</v>
-      </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
         <v>36</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
       </c>
       <c r="D10" t="s">
         <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
@@ -513,16 +663,16 @@
         <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -530,222 +680,222 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E12" t="s">
         <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F13" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E15" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E16" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="F16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E18" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B19" t="s">
         <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F19" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E20" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="F20" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E21" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="F21" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="D22" t="s">
         <v>65</v>
       </c>
       <c r="E22" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23">
@@ -753,16 +903,16 @@
         <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="D23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E23" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="F23" t="s">
         <v>11</v>
@@ -770,19 +920,19 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E24" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F24" t="s">
         <v>11</v>
@@ -790,19 +940,19 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E25" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="F25" t="s">
         <v>11</v>
@@ -813,16 +963,16 @@
         <v>72</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D26" t="s">
         <v>73</v>
       </c>
       <c r="E26" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F26" t="s">
         <v>11</v>
@@ -833,19 +983,19 @@
         <v>74</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D27" t="s">
         <v>75</v>
       </c>
       <c r="E27" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28">
@@ -853,58 +1003,618 @@
         <v>76</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D28" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E28" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" t="s">
         <v>78</v>
       </c>
-      <c r="B29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" t="s">
-        <v>79</v>
-      </c>
       <c r="E29" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
         <v>80</v>
       </c>
-      <c r="B30" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" t="s">
         <v>81</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E31" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" t="s">
+        <v>83</v>
+      </c>
+      <c r="E32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" t="s">
+        <v>85</v>
+      </c>
+      <c r="E33" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>86</v>
+      </c>
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" t="s">
+        <v>85</v>
+      </c>
+      <c r="E34" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" t="s">
+        <v>85</v>
+      </c>
+      <c r="E35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" t="s">
+        <v>91</v>
+      </c>
+      <c r="E37" t="s">
+        <v>26</v>
+      </c>
+      <c r="F37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" t="s">
+        <v>93</v>
+      </c>
+      <c r="E38" t="s">
+        <v>56</v>
+      </c>
+      <c r="F38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>94</v>
+      </c>
+      <c r="B39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" t="s">
+        <v>93</v>
+      </c>
+      <c r="E39" t="s">
+        <v>56</v>
+      </c>
+      <c r="F39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>95</v>
+      </c>
+      <c r="B40" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" t="s">
+        <v>36</v>
+      </c>
+      <c r="D40" t="s">
+        <v>96</v>
+      </c>
+      <c r="E40" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>97</v>
+      </c>
+      <c r="B41" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" t="s">
+        <v>96</v>
+      </c>
+      <c r="E41" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" t="s">
+        <v>98</v>
+      </c>
+      <c r="E42" t="s">
+        <v>26</v>
+      </c>
+      <c r="F42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>99</v>
+      </c>
+      <c r="B43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" t="s">
+        <v>100</v>
+      </c>
+      <c r="E43" t="s">
+        <v>23</v>
+      </c>
+      <c r="F43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>101</v>
+      </c>
+      <c r="B44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44" t="s">
+        <v>102</v>
+      </c>
+      <c r="E44" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>99</v>
+      </c>
+      <c r="B45" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" t="s">
+        <v>36</v>
+      </c>
+      <c r="D45" t="s">
+        <v>102</v>
+      </c>
+      <c r="E45" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>103</v>
+      </c>
+      <c r="B46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" t="s">
+        <v>104</v>
+      </c>
+      <c r="E46" t="s">
         <v>16</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F46" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>105</v>
+      </c>
+      <c r="B47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" t="s">
+        <v>106</v>
+      </c>
+      <c r="E47" t="s">
+        <v>26</v>
+      </c>
+      <c r="F47" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>107</v>
+      </c>
+      <c r="B48" t="s">
+        <v>108</v>
+      </c>
+      <c r="C48" t="s">
+        <v>109</v>
+      </c>
+      <c r="D48" t="s">
+        <v>110</v>
+      </c>
+      <c r="E48" t="s">
+        <v>30</v>
+      </c>
+      <c r="F48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>111</v>
+      </c>
+      <c r="B49" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" t="s">
+        <v>112</v>
+      </c>
+      <c r="E49" t="s">
+        <v>23</v>
+      </c>
+      <c r="F49" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>113</v>
+      </c>
+      <c r="B50" t="s">
+        <v>114</v>
+      </c>
+      <c r="C50" t="s">
+        <v>115</v>
+      </c>
+      <c r="D50" t="s">
+        <v>116</v>
+      </c>
+      <c r="E50" t="s">
+        <v>23</v>
+      </c>
+      <c r="F50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>117</v>
+      </c>
+      <c r="B51" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" t="s">
+        <v>118</v>
+      </c>
+      <c r="E51" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>119</v>
+      </c>
+      <c r="B52" t="s">
+        <v>35</v>
+      </c>
+      <c r="C52" t="s">
+        <v>36</v>
+      </c>
+      <c r="D52" t="s">
+        <v>120</v>
+      </c>
+      <c r="E52" t="s">
+        <v>16</v>
+      </c>
+      <c r="F52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>121</v>
+      </c>
+      <c r="B53" t="s">
+        <v>26</v>
+      </c>
+      <c r="C53" t="s">
+        <v>26</v>
+      </c>
+      <c r="D53" t="s">
+        <v>122</v>
+      </c>
+      <c r="E53" t="s">
+        <v>33</v>
+      </c>
+      <c r="F53" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>123</v>
+      </c>
+      <c r="B54" t="s">
+        <v>35</v>
+      </c>
+      <c r="C54" t="s">
+        <v>36</v>
+      </c>
+      <c r="D54" t="s">
+        <v>124</v>
+      </c>
+      <c r="E54" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>125</v>
+      </c>
+      <c r="B55" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" t="s">
+        <v>126</v>
+      </c>
+      <c r="E55" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>127</v>
+      </c>
+      <c r="B56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" t="s">
+        <v>128</v>
+      </c>
+      <c r="E56" t="s">
+        <v>16</v>
+      </c>
+      <c r="F56" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>129</v>
+      </c>
+      <c r="B57" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" t="s">
+        <v>128</v>
+      </c>
+      <c r="E57" t="s">
+        <v>33</v>
+      </c>
+      <c r="F57" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>130</v>
+      </c>
+      <c r="B58" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" t="s">
+        <v>131</v>
+      </c>
+      <c r="E58" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" t="s">
         <v>11</v>
       </c>
     </row>

--- a/mySchedulereports.xlsx
+++ b/mySchedulereports.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="159">
   <si>
     <t>Name</t>
   </si>
@@ -245,15 +245,15 @@
     <t>2`12`12</t>
   </si>
   <si>
+    <t>hxhz</t>
+  </si>
+  <si>
+    <t>2022-05-04 20:21</t>
+  </si>
+  <si>
     <t>gxxgdg</t>
   </si>
   <si>
-    <t>2022-05-04 20:21</t>
-  </si>
-  <si>
-    <t>hxhz</t>
-  </si>
-  <si>
     <t>gdgdgs</t>
   </si>
   <si>
@@ -371,12 +371,78 @@
     <t>2022-05-04 22:47</t>
   </si>
   <si>
-    <t>xc@222</t>
+    <t>gggvvv</t>
+  </si>
+  <si>
+    <t>2022-05-05 01:58</t>
+  </si>
+  <si>
+    <t>ggggg</t>
+  </si>
+  <si>
+    <t>7868768</t>
+  </si>
+  <si>
+    <t>jkdshjhdskjfh</t>
+  </si>
+  <si>
+    <t>2022-05-05 02:34</t>
+  </si>
+  <si>
+    <t>Employee Referral</t>
+  </si>
+  <si>
+    <t>hgggggg</t>
+  </si>
+  <si>
+    <t>hzhxhd</t>
+  </si>
+  <si>
+    <t>hshshshhj gjhhh hhhh uuhgyy</t>
+  </si>
+  <si>
+    <t>2022-05-05 02:35</t>
+  </si>
+  <si>
+    <t>gggggg</t>
+  </si>
+  <si>
+    <t>2022-05-05 02:39</t>
+  </si>
+  <si>
+    <t>kkjjk</t>
+  </si>
+  <si>
+    <t>2022-05-05 02:43</t>
+  </si>
+  <si>
+    <t>vvgg</t>
+  </si>
+  <si>
+    <t>gfdggdg</t>
+  </si>
+  <si>
+    <t>hffhfhur</t>
+  </si>
+  <si>
+    <t>2022-05-05 02:46</t>
+  </si>
+  <si>
+    <t>xxcc</t>
   </si>
   <si>
     <t>2022-05-05 14:15</t>
   </si>
   <si>
+    <t>gggfff</t>
+  </si>
+  <si>
+    <t>2022-05-05 14:30</t>
+  </si>
+  <si>
+    <t>cxvxcv</t>
+  </si>
+  <si>
     <t>dhan</t>
   </si>
   <si>
@@ -401,7 +467,22 @@
     <t>2022-05-05 17:42</t>
   </si>
   <si>
+    <t>gsgsgd</t>
+  </si>
+  <si>
+    <t>2022-05-06 02:00</t>
+  </si>
+  <si>
     <t>dydydyd</t>
+  </si>
+  <si>
+    <t>2022-05-06 13:22</t>
+  </si>
+  <si>
+    <t>dghjh</t>
+  </si>
+  <si>
+    <t>2022-05-07 12:25</t>
   </si>
   <si>
     <t>Sneha</t>
@@ -452,7 +533,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1483,19 +1564,19 @@
         <v>119</v>
       </c>
       <c r="B52" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D52" t="s">
         <v>120</v>
       </c>
       <c r="E52" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F52" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53">
@@ -1503,44 +1584,44 @@
         <v>121</v>
       </c>
       <c r="B53" t="s">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="C53" t="s">
-        <v>26</v>
+        <v>123</v>
       </c>
       <c r="D53" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E53" t="s">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="F53" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B54" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="C54" t="s">
-        <v>36</v>
+        <v>128</v>
       </c>
       <c r="D54" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="F54" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B55" t="s">
         <v>13</v>
@@ -1549,18 +1630,18 @@
         <v>14</v>
       </c>
       <c r="D55" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="F55" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B56" t="s">
         <v>13</v>
@@ -1569,30 +1650,30 @@
         <v>14</v>
       </c>
       <c r="D56" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E56" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="F56" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B57" t="s">
-        <v>13</v>
+        <v>135</v>
       </c>
       <c r="C57" t="s">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="D57" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="E57" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="F57" t="s">
         <v>20</v>
@@ -1600,21 +1681,221 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="B58" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C58" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D58" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="E58" t="s">
+        <v>16</v>
+      </c>
+      <c r="F58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>140</v>
+      </c>
+      <c r="B59" t="s">
+        <v>26</v>
+      </c>
+      <c r="C59" t="s">
+        <v>26</v>
+      </c>
+      <c r="D59" t="s">
+        <v>141</v>
+      </c>
+      <c r="E59" t="s">
+        <v>56</v>
+      </c>
+      <c r="F59" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>142</v>
+      </c>
+      <c r="B60" t="s">
+        <v>26</v>
+      </c>
+      <c r="C60" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" t="s">
+        <v>141</v>
+      </c>
+      <c r="E60" t="s">
         <v>10</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F60" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>143</v>
+      </c>
+      <c r="B61" t="s">
+        <v>26</v>
+      </c>
+      <c r="C61" t="s">
+        <v>26</v>
+      </c>
+      <c r="D61" t="s">
+        <v>144</v>
+      </c>
+      <c r="E61" t="s">
+        <v>33</v>
+      </c>
+      <c r="F61" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>145</v>
+      </c>
+      <c r="B62" t="s">
+        <v>26</v>
+      </c>
+      <c r="C62" t="s">
+        <v>26</v>
+      </c>
+      <c r="D62" t="s">
+        <v>146</v>
+      </c>
+      <c r="E62" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>147</v>
+      </c>
+      <c r="B63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" t="s">
+        <v>148</v>
+      </c>
+      <c r="E63" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>149</v>
+      </c>
+      <c r="B64" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64" t="s">
+        <v>150</v>
+      </c>
+      <c r="E64" t="s">
+        <v>16</v>
+      </c>
+      <c r="F64" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>151</v>
+      </c>
+      <c r="B65" t="s">
+        <v>35</v>
+      </c>
+      <c r="C65" t="s">
+        <v>36</v>
+      </c>
+      <c r="D65" t="s">
+        <v>152</v>
+      </c>
+      <c r="E65" t="s">
+        <v>16</v>
+      </c>
+      <c r="F65" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>153</v>
+      </c>
+      <c r="B66" t="s">
+        <v>13</v>
+      </c>
+      <c r="C66" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66" t="s">
+        <v>154</v>
+      </c>
+      <c r="E66" t="s">
+        <v>33</v>
+      </c>
+      <c r="F66" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>155</v>
+      </c>
+      <c r="B67" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67" t="s">
+        <v>156</v>
+      </c>
+      <c r="E67" t="s">
+        <v>10</v>
+      </c>
+      <c r="F67" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>157</v>
+      </c>
+      <c r="B68" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68" t="s">
+        <v>158</v>
+      </c>
+      <c r="E68" t="s">
+        <v>10</v>
+      </c>
+      <c r="F68" t="s">
         <v>11</v>
       </c>
     </row>

--- a/mySchedulereports.xlsx
+++ b/mySchedulereports.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="44">
   <si>
     <t>Name</t>
   </si>
@@ -32,22 +32,118 @@
     <t>Status</t>
   </si>
   <si>
-    <t>yydyd</t>
-  </si>
-  <si>
-    <t>job233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">android </t>
-  </si>
-  <si>
-    <t>2022-05-12 21:20</t>
+    <t>jayaraj</t>
+  </si>
+  <si>
+    <t>JOB001</t>
+  </si>
+  <si>
+    <t>Java Developersss</t>
+  </si>
+  <si>
+    <t>2022-05-12 19:22</t>
+  </si>
+  <si>
+    <t>Indeed</t>
+  </si>
+  <si>
+    <t>SCHEDULED</t>
+  </si>
+  <si>
+    <t>Giri</t>
+  </si>
+  <si>
+    <t>2022-05-12 19:52</t>
+  </si>
+  <si>
+    <t>Naukri</t>
+  </si>
+  <si>
+    <t>priyaaa</t>
+  </si>
+  <si>
+    <t>2022-05-12 20:00</t>
+  </si>
+  <si>
+    <t>Hirist</t>
+  </si>
+  <si>
+    <t>tyty</t>
+  </si>
+  <si>
+    <t>2022-05-13 13:15</t>
+  </si>
+  <si>
+    <t>Insta Hyre</t>
+  </si>
+  <si>
+    <t>shivani</t>
+  </si>
+  <si>
+    <t>2022-05-16 13:52</t>
+  </si>
+  <si>
+    <t>RE-SCHEDULED</t>
+  </si>
+  <si>
+    <t>suresh</t>
+  </si>
+  <si>
+    <t>2022-05-16 14:45</t>
+  </si>
+  <si>
+    <t>Ramya</t>
+  </si>
+  <si>
+    <t>2022-05-17 00:39</t>
+  </si>
+  <si>
+    <t>seema</t>
+  </si>
+  <si>
+    <t>2022-05-17 12:23</t>
+  </si>
+  <si>
+    <t>gggvgv</t>
+  </si>
+  <si>
+    <t>2022-05-20 01:29</t>
+  </si>
+  <si>
+    <t>LinkedIn</t>
+  </si>
+  <si>
+    <t>gggggg</t>
+  </si>
+  <si>
+    <t>2022-05-20 15:24</t>
+  </si>
+  <si>
+    <t>Sridhar Vern</t>
+  </si>
+  <si>
+    <t>2022-05-20 19:35</t>
   </si>
   <si>
     <t>Monster</t>
   </si>
   <si>
-    <t>SCHEDULED</t>
+    <t>gfgvvggg</t>
+  </si>
+  <si>
+    <t>2022-05-20 21:10</t>
+  </si>
+  <si>
+    <t>saichhfh</t>
+  </si>
+  <si>
+    <t>2022-05-23 00:39</t>
+  </si>
+  <si>
+    <t>gffff</t>
+  </si>
+  <si>
+    <t>2022-05-24 15:32</t>
   </si>
 </sst>
 </file>
@@ -92,7 +188,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -138,6 +234,266 @@
         <v>11</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
